--- a/tools/xlsx/Flow系统协议整理.xlsx
+++ b/tools/xlsx/Flow系统协议整理.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27809"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\2016-NanoGrid\00-Docments\8-Hardware\H-Flow\4 - 产品说明书\1-通讯规约\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mageia/Dropbox/Workspace/meijizhan/tools/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="90" windowWidth="27980" windowHeight="16590"/>
+    <workbookView xWindow="6520" yWindow="840" windowWidth="27980" windowHeight="16600"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="1" r:id="rId1"/>
@@ -17,12 +17,20 @@
     <sheet name="WriteConfig" sheetId="3" r:id="rId3"/>
     <sheet name="设备逻辑参数列表" sheetId="6" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="282">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -449,7 +457,7 @@
       <rPr>
         <sz val="10.5"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="DengXian"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -460,6 +468,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>：运行；置</t>
@@ -468,7 +477,7 @@
       <rPr>
         <sz val="10.5"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="DengXian"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -479,6 +488,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>：停止</t>
@@ -492,7 +502,7 @@
       <rPr>
         <sz val="10.5"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="DengXian"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -507,7 +517,7 @@
       <rPr>
         <sz val="10.5"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="DengXian"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -522,7 +532,7 @@
       <rPr>
         <sz val="10.5"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="DengXian"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -533,6 +543,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>复位清零</t>
@@ -546,7 +557,7 @@
       <rPr>
         <sz val="10.5"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="DengXian"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -557,6 +568,7 @@
         <sz val="10.5"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>：稳压器启动充电</t>
@@ -570,7 +582,7 @@
       <rPr>
         <sz val="10.5"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="DengXian"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -581,6 +593,7 @@
         <sz val="10.5"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>：</t>
@@ -589,7 +602,7 @@
       <rPr>
         <sz val="10.5"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="DengXian"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -600,6 +613,7 @@
         <sz val="10.5"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>交流电源接入</t>
@@ -613,7 +627,7 @@
       <rPr>
         <sz val="10.5"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="DengXian"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -624,6 +638,7 @@
         <sz val="10.5"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>：</t>
@@ -632,7 +647,7 @@
       <rPr>
         <sz val="10.5"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="DengXian"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -643,6 +658,7 @@
         <sz val="10.5"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>接入电池</t>
@@ -656,7 +672,7 @@
       <rPr>
         <sz val="10.5"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="DengXian"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -667,6 +683,7 @@
         <sz val="10.5"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>：启动正极泵</t>
@@ -680,7 +697,7 @@
       <rPr>
         <sz val="10.5"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="DengXian"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -691,6 +708,7 @@
         <sz val="10.5"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>：启动负极泵</t>
@@ -731,7 +749,7 @@
       <rPr>
         <sz val="10.5"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="DengXian"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -746,7 +764,7 @@
       <rPr>
         <sz val="10.5"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="DengXian"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1143,23 +1161,51 @@
   <si>
     <t>line</t>
   </si>
+  <si>
+    <t>CustomPower</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CustomEnergy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kWh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CustomHB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="17">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1187,7 +1233,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1195,7 +1241,7 @@
     <font>
       <sz val="10.5"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1203,18 +1249,20 @@
       <sz val="10.5"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1228,7 +1276,7 @@
     <font>
       <sz val="10.5"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="DengXian"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1250,7 +1298,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1263,7 +1311,25 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1287,35 +1353,53 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1438,8 +1522,14 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  <cellStyles count="7">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1455,7 +1545,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1497,12 +1587,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="DengXian Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -1532,12 +1622,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="DengXian" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -1741,32 +1831,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q35"/>
+  <dimension ref="A1:Q38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2:O4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.90625" customWidth="1"/>
-    <col min="2" max="3" width="13.81640625" customWidth="1"/>
-    <col min="4" max="4" width="14.7265625" customWidth="1"/>
-    <col min="5" max="5" width="26.81640625" customWidth="1"/>
-    <col min="6" max="6" width="21.7265625" customWidth="1"/>
-    <col min="7" max="7" width="14.7265625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="14.54296875" customWidth="1"/>
-    <col min="9" max="9" width="12.26953125" customWidth="1"/>
-    <col min="10" max="10" width="10.6328125" customWidth="1"/>
-    <col min="11" max="11" width="12.54296875" customWidth="1"/>
-    <col min="12" max="13" width="10.1796875" customWidth="1"/>
-    <col min="14" max="14" width="14.54296875" customWidth="1"/>
-    <col min="15" max="15" width="8.36328125" customWidth="1"/>
+    <col min="1" max="1" width="7.83203125" customWidth="1"/>
+    <col min="2" max="3" width="13.83203125" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" customWidth="1"/>
+    <col min="5" max="5" width="26.83203125" customWidth="1"/>
+    <col min="6" max="6" width="21.6640625" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="14.5" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" customWidth="1"/>
+    <col min="11" max="11" width="12.5" customWidth="1"/>
+    <col min="12" max="13" width="10.1640625" customWidth="1"/>
+    <col min="14" max="14" width="14.5" customWidth="1"/>
+    <col min="15" max="15" width="8.33203125" customWidth="1"/>
     <col min="16" max="16" width="24" customWidth="1"/>
     <col min="17" max="17" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.5">
+    <row r="1" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
@@ -1819,144 +1909,84 @@
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="15.5">
-      <c r="A2" s="33">
+    <row r="2" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="33" t="s">
+        <v>270</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>276</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>275</v>
+      </c>
+      <c r="F2" s="29"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="O2" s="23" t="s">
+        <v>277</v>
+      </c>
+      <c r="P2" s="25"/>
+    </row>
+    <row r="3" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="23"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="33" t="s">
+        <v>270</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>276</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>278</v>
+      </c>
+      <c r="F3" s="29"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+      <c r="O3" s="23" t="s">
+        <v>279</v>
+      </c>
+      <c r="P3" s="25"/>
+    </row>
+    <row r="4" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="23"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="33" t="s">
+        <v>270</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>276</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>280</v>
+      </c>
+      <c r="F4" s="29"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
+      <c r="O4" s="23" t="s">
+        <v>281</v>
+      </c>
+      <c r="P4" s="25"/>
+    </row>
+    <row r="5" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="33">
         <v>1</v>
-      </c>
-      <c r="B2" s="33" t="s">
-        <v>180</v>
-      </c>
-      <c r="C2" s="33" t="s">
-        <v>271</v>
-      </c>
-      <c r="D2" s="33" t="s">
-        <v>273</v>
-      </c>
-      <c r="E2" s="33" t="s">
-        <v>115</v>
-      </c>
-      <c r="F2" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="H2" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="I2" s="33" t="s">
-        <v>84</v>
-      </c>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33">
-        <v>1</v>
-      </c>
-      <c r="M2" s="33">
-        <v>0</v>
-      </c>
-      <c r="N2" s="33" t="s">
-        <v>265</v>
-      </c>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q2" s="33"/>
-    </row>
-    <row r="3" spans="1:17" ht="15.5">
-      <c r="A3" s="33">
-        <v>2</v>
-      </c>
-      <c r="B3" s="33" t="s">
-        <v>180</v>
-      </c>
-      <c r="C3" s="33" t="s">
-        <v>271</v>
-      </c>
-      <c r="D3" s="33" t="s">
-        <v>273</v>
-      </c>
-      <c r="E3" s="33" t="s">
-        <v>116</v>
-      </c>
-      <c r="F3" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="I3" s="33" t="s">
-        <v>84</v>
-      </c>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33">
-        <v>1</v>
-      </c>
-      <c r="M3" s="33">
-        <v>0</v>
-      </c>
-      <c r="N3" s="33" t="s">
-        <v>265</v>
-      </c>
-      <c r="O3" s="33"/>
-      <c r="P3" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q3" s="33"/>
-    </row>
-    <row r="4" spans="1:17" ht="15.5">
-      <c r="A4" s="33">
-        <v>3</v>
-      </c>
-      <c r="B4" s="33" t="s">
-        <v>180</v>
-      </c>
-      <c r="C4" s="33" t="s">
-        <v>271</v>
-      </c>
-      <c r="D4" s="33" t="s">
-        <v>273</v>
-      </c>
-      <c r="E4" s="33" t="s">
-        <v>117</v>
-      </c>
-      <c r="F4" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="I4" s="33" t="s">
-        <v>84</v>
-      </c>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="33">
-        <v>1</v>
-      </c>
-      <c r="M4" s="33">
-        <v>0</v>
-      </c>
-      <c r="N4" s="33" t="s">
-        <v>265</v>
-      </c>
-      <c r="O4" s="33"/>
-      <c r="P4" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q4" s="33"/>
-    </row>
-    <row r="5" spans="1:17" ht="15.5">
-      <c r="A5" s="33">
-        <v>4</v>
       </c>
       <c r="B5" s="33" t="s">
         <v>180</v>
@@ -1968,16 +1998,16 @@
         <v>273</v>
       </c>
       <c r="E5" s="33" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F5" s="33" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G5" s="34" t="s">
         <v>47</v>
       </c>
       <c r="H5" s="33" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I5" s="33" t="s">
         <v>84</v>
@@ -1999,9 +2029,9 @@
       </c>
       <c r="Q5" s="33"/>
     </row>
-    <row r="6" spans="1:17" ht="15.5">
+    <row r="6" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="33">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B6" s="33" t="s">
         <v>180</v>
@@ -2013,16 +2043,16 @@
         <v>273</v>
       </c>
       <c r="E6" s="33" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F6" s="33" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G6" s="34" t="s">
         <v>47</v>
       </c>
       <c r="H6" s="33" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I6" s="33" t="s">
         <v>84</v>
@@ -2044,9 +2074,9 @@
       </c>
       <c r="Q6" s="33"/>
     </row>
-    <row r="7" spans="1:17" ht="15.5">
+    <row r="7" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="33">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B7" s="33" t="s">
         <v>180</v>
@@ -2058,16 +2088,16 @@
         <v>273</v>
       </c>
       <c r="E7" s="33" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F7" s="33" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G7" s="34" t="s">
         <v>47</v>
       </c>
       <c r="H7" s="33" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I7" s="33" t="s">
         <v>84</v>
@@ -2089,9 +2119,9 @@
       </c>
       <c r="Q7" s="33"/>
     </row>
-    <row r="8" spans="1:17" ht="15.5">
+    <row r="8" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="33">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B8" s="33" t="s">
         <v>180</v>
@@ -2103,16 +2133,16 @@
         <v>273</v>
       </c>
       <c r="E8" s="33" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F8" s="33" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G8" s="34" t="s">
         <v>47</v>
       </c>
       <c r="H8" s="33" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I8" s="33" t="s">
         <v>84</v>
@@ -2134,9 +2164,9 @@
       </c>
       <c r="Q8" s="33"/>
     </row>
-    <row r="9" spans="1:17" ht="15.5">
+    <row r="9" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="33">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B9" s="33" t="s">
         <v>180</v>
@@ -2148,16 +2178,16 @@
         <v>273</v>
       </c>
       <c r="E9" s="33" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F9" s="33" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G9" s="34" t="s">
         <v>47</v>
       </c>
       <c r="H9" s="33" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I9" s="33" t="s">
         <v>84</v>
@@ -2179,9 +2209,9 @@
       </c>
       <c r="Q9" s="33"/>
     </row>
-    <row r="10" spans="1:17" ht="15.5">
+    <row r="10" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="33">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B10" s="33" t="s">
         <v>180</v>
@@ -2193,16 +2223,16 @@
         <v>273</v>
       </c>
       <c r="E10" s="33" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F10" s="33" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G10" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="H10" s="34" t="s">
-        <v>61</v>
+      <c r="H10" s="33" t="s">
+        <v>58</v>
       </c>
       <c r="I10" s="33" t="s">
         <v>84</v>
@@ -2224,9 +2254,9 @@
       </c>
       <c r="Q10" s="33"/>
     </row>
-    <row r="11" spans="1:17" ht="16.5" customHeight="1">
+    <row r="11" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="33">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B11" s="33" t="s">
         <v>180</v>
@@ -2238,16 +2268,16 @@
         <v>273</v>
       </c>
       <c r="E11" s="33" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F11" s="33" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G11" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="H11" s="34" t="s">
-        <v>62</v>
+      <c r="H11" s="33" t="s">
+        <v>59</v>
       </c>
       <c r="I11" s="33" t="s">
         <v>84</v>
@@ -2269,9 +2299,9 @@
       </c>
       <c r="Q11" s="33"/>
     </row>
-    <row r="12" spans="1:17" ht="15.5">
+    <row r="12" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="33">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B12" s="33" t="s">
         <v>180</v>
@@ -2283,16 +2313,16 @@
         <v>273</v>
       </c>
       <c r="E12" s="33" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="F12" s="33" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G12" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="H12" s="34" t="s">
-        <v>63</v>
+      <c r="H12" s="33" t="s">
+        <v>60</v>
       </c>
       <c r="I12" s="33" t="s">
         <v>84</v>
@@ -2310,13 +2340,13 @@
       </c>
       <c r="O12" s="33"/>
       <c r="P12" s="33" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q12" s="33"/>
     </row>
-    <row r="13" spans="1:17" ht="15.5">
+    <row r="13" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="33">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B13" s="33" t="s">
         <v>180</v>
@@ -2328,16 +2358,16 @@
         <v>273</v>
       </c>
       <c r="E13" s="33" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="F13" s="33" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G13" s="34" t="s">
         <v>47</v>
       </c>
       <c r="H13" s="34" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="I13" s="33" t="s">
         <v>84</v>
@@ -2355,13 +2385,13 @@
       </c>
       <c r="O13" s="33"/>
       <c r="P13" s="33" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q13" s="33"/>
     </row>
-    <row r="14" spans="1:17" ht="15.5">
+    <row r="14" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="33">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B14" s="33" t="s">
         <v>180</v>
@@ -2373,16 +2403,16 @@
         <v>273</v>
       </c>
       <c r="E14" s="33" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="F14" s="33" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G14" s="34" t="s">
         <v>47</v>
       </c>
       <c r="H14" s="34" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I14" s="33" t="s">
         <v>84</v>
@@ -2400,13 +2430,13 @@
       </c>
       <c r="O14" s="33"/>
       <c r="P14" s="33" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q14" s="33"/>
     </row>
-    <row r="15" spans="1:17" ht="15.5">
+    <row r="15" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="33">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B15" s="33" t="s">
         <v>180</v>
@@ -2418,16 +2448,16 @@
         <v>273</v>
       </c>
       <c r="E15" s="33" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F15" s="33" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G15" s="34" t="s">
         <v>47</v>
       </c>
       <c r="H15" s="34" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I15" s="33" t="s">
         <v>84</v>
@@ -2449,9 +2479,9 @@
       </c>
       <c r="Q15" s="33"/>
     </row>
-    <row r="16" spans="1:17" ht="15.5">
+    <row r="16" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="33">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B16" s="33" t="s">
         <v>180</v>
@@ -2463,16 +2493,16 @@
         <v>273</v>
       </c>
       <c r="E16" s="33" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F16" s="33" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G16" s="34" t="s">
         <v>47</v>
       </c>
       <c r="H16" s="34" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I16" s="33" t="s">
         <v>84</v>
@@ -2494,9 +2524,9 @@
       </c>
       <c r="Q16" s="33"/>
     </row>
-    <row r="17" spans="1:17" ht="15.5">
+    <row r="17" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="33">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B17" s="33" t="s">
         <v>180</v>
@@ -2508,16 +2538,16 @@
         <v>273</v>
       </c>
       <c r="E17" s="33" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="F17" s="33" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G17" s="34" t="s">
         <v>47</v>
       </c>
       <c r="H17" s="34" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I17" s="33" t="s">
         <v>84</v>
@@ -2539,9 +2569,9 @@
       </c>
       <c r="Q17" s="33"/>
     </row>
-    <row r="18" spans="1:17" ht="15.5">
+    <row r="18" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="33">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B18" s="33" t="s">
         <v>180</v>
@@ -2553,16 +2583,16 @@
         <v>273</v>
       </c>
       <c r="E18" s="33" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="F18" s="33" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G18" s="34" t="s">
         <v>47</v>
       </c>
       <c r="H18" s="34" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I18" s="33" t="s">
         <v>84</v>
@@ -2584,9 +2614,9 @@
       </c>
       <c r="Q18" s="33"/>
     </row>
-    <row r="19" spans="1:17" ht="15.5">
+    <row r="19" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="33">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B19" s="33" t="s">
         <v>180</v>
@@ -2598,16 +2628,16 @@
         <v>273</v>
       </c>
       <c r="E19" s="33" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F19" s="33" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G19" s="34" t="s">
         <v>47</v>
       </c>
       <c r="H19" s="34" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I19" s="33" t="s">
         <v>84</v>
@@ -2629,9 +2659,9 @@
       </c>
       <c r="Q19" s="33"/>
     </row>
-    <row r="20" spans="1:17" ht="15.5">
+    <row r="20" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="33">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B20" s="33" t="s">
         <v>180</v>
@@ -2643,16 +2673,16 @@
         <v>273</v>
       </c>
       <c r="E20" s="33" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="F20" s="33" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G20" s="34" t="s">
         <v>47</v>
       </c>
       <c r="H20" s="34" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I20" s="33" t="s">
         <v>84</v>
@@ -2674,9 +2704,9 @@
       </c>
       <c r="Q20" s="33"/>
     </row>
-    <row r="21" spans="1:17" ht="15.5">
+    <row r="21" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="33">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B21" s="33" t="s">
         <v>180</v>
@@ -2688,16 +2718,16 @@
         <v>273</v>
       </c>
       <c r="E21" s="33" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F21" s="33" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G21" s="34" t="s">
         <v>47</v>
       </c>
       <c r="H21" s="34" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I21" s="33" t="s">
         <v>84</v>
@@ -2719,33 +2749,33 @@
       </c>
       <c r="Q21" s="33"/>
     </row>
-    <row r="22" spans="1:17" ht="15.5">
+    <row r="22" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="33">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B22" s="33" t="s">
         <v>180</v>
       </c>
       <c r="C22" s="33" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D22" s="33" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E22" s="33" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="F22" s="33" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G22" s="34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H22" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="I22" s="35" t="s">
-        <v>45</v>
+        <v>70</v>
+      </c>
+      <c r="I22" s="33" t="s">
+        <v>84</v>
       </c>
       <c r="J22" s="33"/>
       <c r="K22" s="33"/>
@@ -2760,37 +2790,37 @@
       </c>
       <c r="O22" s="33"/>
       <c r="P22" s="33" t="s">
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="Q22" s="33"/>
     </row>
-    <row r="23" spans="1:17" ht="15.5">
+    <row r="23" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="33">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B23" s="33" t="s">
         <v>180</v>
       </c>
       <c r="C23" s="33" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D23" s="33" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E23" s="33" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F23" s="33" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G23" s="34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H23" s="34" t="s">
-        <v>74</v>
-      </c>
-      <c r="I23" s="35" t="s">
-        <v>45</v>
+        <v>71</v>
+      </c>
+      <c r="I23" s="33" t="s">
+        <v>84</v>
       </c>
       <c r="J23" s="33"/>
       <c r="K23" s="33"/>
@@ -2805,37 +2835,37 @@
       </c>
       <c r="O23" s="33"/>
       <c r="P23" s="33" t="s">
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="Q23" s="33"/>
     </row>
-    <row r="24" spans="1:17" ht="15.5">
+    <row r="24" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="33">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B24" s="33" t="s">
         <v>180</v>
       </c>
       <c r="C24" s="33" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D24" s="33" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E24" s="33" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="F24" s="33" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G24" s="34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H24" s="34" t="s">
-        <v>75</v>
-      </c>
-      <c r="I24" s="35" t="s">
-        <v>45</v>
+        <v>72</v>
+      </c>
+      <c r="I24" s="33" t="s">
+        <v>84</v>
       </c>
       <c r="J24" s="33"/>
       <c r="K24" s="33"/>
@@ -2850,13 +2880,13 @@
       </c>
       <c r="O24" s="33"/>
       <c r="P24" s="33" t="s">
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="Q24" s="33"/>
     </row>
-    <row r="25" spans="1:17" ht="15.5">
+    <row r="25" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="33">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B25" s="33" t="s">
         <v>180</v>
@@ -2868,16 +2898,16 @@
         <v>274</v>
       </c>
       <c r="E25" s="33" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F25" s="33" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G25" s="34" t="s">
         <v>48</v>
       </c>
       <c r="H25" s="34" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I25" s="35" t="s">
         <v>45</v>
@@ -2899,9 +2929,9 @@
       </c>
       <c r="Q25" s="33"/>
     </row>
-    <row r="26" spans="1:17" ht="15.5">
+    <row r="26" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="33">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B26" s="33" t="s">
         <v>180</v>
@@ -2913,16 +2943,16 @@
         <v>274</v>
       </c>
       <c r="E26" s="33" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F26" s="33" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G26" s="34" t="s">
         <v>48</v>
       </c>
       <c r="H26" s="34" t="s">
-        <v>126</v>
+        <v>74</v>
       </c>
       <c r="I26" s="35" t="s">
         <v>45</v>
@@ -2944,9 +2974,9 @@
       </c>
       <c r="Q26" s="33"/>
     </row>
-    <row r="27" spans="1:17" ht="15.5">
+    <row r="27" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="33">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B27" s="33" t="s">
         <v>180</v>
@@ -2958,16 +2988,16 @@
         <v>274</v>
       </c>
       <c r="E27" s="33" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F27" s="33" t="s">
-        <v>125</v>
+        <v>33</v>
       </c>
       <c r="G27" s="34" t="s">
         <v>48</v>
       </c>
       <c r="H27" s="34" t="s">
-        <v>127</v>
+        <v>75</v>
       </c>
       <c r="I27" s="35" t="s">
         <v>45</v>
@@ -2989,9 +3019,9 @@
       </c>
       <c r="Q27" s="33"/>
     </row>
-    <row r="28" spans="1:17" ht="15.5">
+    <row r="28" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="33">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B28" s="33" t="s">
         <v>180</v>
@@ -3003,16 +3033,16 @@
         <v>274</v>
       </c>
       <c r="E28" s="33" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="F28" s="33" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G28" s="34" t="s">
         <v>48</v>
       </c>
       <c r="H28" s="34" t="s">
-        <v>128</v>
+        <v>76</v>
       </c>
       <c r="I28" s="35" t="s">
         <v>45</v>
@@ -3020,7 +3050,7 @@
       <c r="J28" s="33"/>
       <c r="K28" s="33"/>
       <c r="L28" s="33">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="M28" s="33">
         <v>0</v>
@@ -3034,9 +3064,9 @@
       </c>
       <c r="Q28" s="33"/>
     </row>
-    <row r="29" spans="1:17" ht="15.5">
+    <row r="29" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="33">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B29" s="33" t="s">
         <v>180</v>
@@ -3048,16 +3078,16 @@
         <v>274</v>
       </c>
       <c r="E29" s="33" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F29" s="33" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G29" s="34" t="s">
         <v>48</v>
       </c>
       <c r="H29" s="34" t="s">
-        <v>78</v>
+        <v>126</v>
       </c>
       <c r="I29" s="35" t="s">
         <v>45</v>
@@ -3065,7 +3095,7 @@
       <c r="J29" s="33"/>
       <c r="K29" s="33"/>
       <c r="L29" s="33">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="M29" s="33">
         <v>0</v>
@@ -3079,9 +3109,9 @@
       </c>
       <c r="Q29" s="33"/>
     </row>
-    <row r="30" spans="1:17" ht="15.5">
+    <row r="30" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="33">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B30" s="33" t="s">
         <v>180</v>
@@ -3093,16 +3123,16 @@
         <v>274</v>
       </c>
       <c r="E30" s="33" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="F30" s="33" t="s">
-        <v>36</v>
+        <v>125</v>
       </c>
       <c r="G30" s="34" t="s">
         <v>48</v>
       </c>
       <c r="H30" s="34" t="s">
-        <v>77</v>
+        <v>127</v>
       </c>
       <c r="I30" s="35" t="s">
         <v>45</v>
@@ -3124,9 +3154,9 @@
       </c>
       <c r="Q30" s="33"/>
     </row>
-    <row r="31" spans="1:17" ht="15.5">
+    <row r="31" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="33">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B31" s="33" t="s">
         <v>180</v>
@@ -3138,24 +3168,24 @@
         <v>274</v>
       </c>
       <c r="E31" s="33" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F31" s="33" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G31" s="34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H31" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="I31" s="33" t="s">
-        <v>84</v>
+        <v>128</v>
+      </c>
+      <c r="I31" s="35" t="s">
+        <v>45</v>
       </c>
       <c r="J31" s="33"/>
       <c r="K31" s="33"/>
       <c r="L31" s="33">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="M31" s="33">
         <v>0</v>
@@ -3165,13 +3195,13 @@
       </c>
       <c r="O31" s="33"/>
       <c r="P31" s="33" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q31" s="33"/>
     </row>
-    <row r="32" spans="1:17" ht="15.5">
+    <row r="32" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="33">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B32" s="33" t="s">
         <v>180</v>
@@ -3183,24 +3213,24 @@
         <v>274</v>
       </c>
       <c r="E32" s="33" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F32" s="33" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G32" s="34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H32" s="34" t="s">
-        <v>80</v>
-      </c>
-      <c r="I32" s="33" t="s">
-        <v>84</v>
+        <v>78</v>
+      </c>
+      <c r="I32" s="35" t="s">
+        <v>45</v>
       </c>
       <c r="J32" s="33"/>
       <c r="K32" s="33"/>
       <c r="L32" s="33">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="M32" s="33">
         <v>0</v>
@@ -3210,13 +3240,13 @@
       </c>
       <c r="O32" s="33"/>
       <c r="P32" s="33" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q32" s="33"/>
     </row>
-    <row r="33" spans="1:17" ht="15.5">
+    <row r="33" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="33">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B33" s="33" t="s">
         <v>180</v>
@@ -3225,22 +3255,22 @@
         <v>270</v>
       </c>
       <c r="D33" s="33" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E33" s="33" t="s">
-        <v>129</v>
+        <v>94</v>
       </c>
       <c r="F33" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="G33" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="H33" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="I33" s="33" t="s">
-        <v>84</v>
+        <v>36</v>
+      </c>
+      <c r="G33" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="H33" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="I33" s="35" t="s">
+        <v>45</v>
       </c>
       <c r="J33" s="33"/>
       <c r="K33" s="33"/>
@@ -3254,55 +3284,59 @@
         <v>265</v>
       </c>
       <c r="O33" s="33"/>
-      <c r="P33" s="33"/>
+      <c r="P33" s="33" t="s">
+        <v>83</v>
+      </c>
       <c r="Q33" s="33"/>
     </row>
-    <row r="34" spans="1:17" ht="31">
-      <c r="A34" s="35">
-        <v>33</v>
+    <row r="34" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="A34" s="33">
+        <v>30</v>
       </c>
       <c r="B34" s="33" t="s">
         <v>180</v>
       </c>
       <c r="C34" s="33" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D34" s="33" t="s">
-        <v>273</v>
-      </c>
-      <c r="E34" s="35" t="s">
-        <v>261</v>
-      </c>
-      <c r="F34" s="35" t="s">
-        <v>262</v>
-      </c>
-      <c r="G34" s="36" t="s">
-        <v>266</v>
-      </c>
-      <c r="H34" s="37"/>
-      <c r="I34" s="35" t="s">
+        <v>274</v>
+      </c>
+      <c r="E34" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="F34" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="G34" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="H34" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="I34" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="J34" s="37"/>
-      <c r="K34" s="37"/>
-      <c r="L34" s="37">
+      <c r="J34" s="33"/>
+      <c r="K34" s="33"/>
+      <c r="L34" s="33">
         <v>1</v>
       </c>
-      <c r="M34" s="37">
+      <c r="M34" s="33">
         <v>0</v>
       </c>
       <c r="N34" s="33" t="s">
         <v>265</v>
       </c>
-      <c r="O34" s="37"/>
-      <c r="P34" s="38" t="s">
-        <v>267</v>
-      </c>
-      <c r="Q34" s="37"/>
-    </row>
-    <row r="35" spans="1:17" ht="76" customHeight="1">
-      <c r="A35" s="35">
-        <v>34</v>
+      <c r="O34" s="33"/>
+      <c r="P34" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q34" s="33"/>
+    </row>
+    <row r="35" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="A35" s="33">
+        <v>31</v>
       </c>
       <c r="B35" s="33" t="s">
         <v>180</v>
@@ -3311,48 +3345,179 @@
         <v>270</v>
       </c>
       <c r="D35" s="33" t="s">
-        <v>273</v>
-      </c>
-      <c r="E35" s="35" t="s">
-        <v>263</v>
-      </c>
-      <c r="F35" s="35" t="s">
-        <v>264</v>
-      </c>
-      <c r="G35" s="36" t="s">
-        <v>266</v>
-      </c>
-      <c r="H35" s="37"/>
-      <c r="I35" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="J35" s="37"/>
-      <c r="K35" s="37"/>
-      <c r="L35" s="35">
+        <v>274</v>
+      </c>
+      <c r="E35" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="F35" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="G35" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="H35" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="I35" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="J35" s="33"/>
+      <c r="K35" s="33"/>
+      <c r="L35" s="33">
         <v>1</v>
       </c>
-      <c r="M35" s="35">
+      <c r="M35" s="33">
         <v>0</v>
       </c>
       <c r="N35" s="33" t="s">
         <v>265</v>
       </c>
-      <c r="O35" s="37"/>
-      <c r="P35" s="38" t="s">
+      <c r="O35" s="33"/>
+      <c r="P35" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q35" s="33"/>
+    </row>
+    <row r="36" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="A36" s="33">
+        <v>32</v>
+      </c>
+      <c r="B36" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="C36" s="33" t="s">
+        <v>270</v>
+      </c>
+      <c r="D36" s="33" t="s">
+        <v>273</v>
+      </c>
+      <c r="E36" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="F36" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="G36" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="H36" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="I36" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="J36" s="33"/>
+      <c r="K36" s="33"/>
+      <c r="L36" s="33">
+        <v>1</v>
+      </c>
+      <c r="M36" s="33">
+        <v>0</v>
+      </c>
+      <c r="N36" s="33" t="s">
+        <v>265</v>
+      </c>
+      <c r="O36" s="33"/>
+      <c r="P36" s="33"/>
+      <c r="Q36" s="33"/>
+    </row>
+    <row r="37" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+      <c r="A37" s="35">
+        <v>33</v>
+      </c>
+      <c r="B37" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="C37" s="33" t="s">
+        <v>271</v>
+      </c>
+      <c r="D37" s="33" t="s">
+        <v>273</v>
+      </c>
+      <c r="E37" s="35" t="s">
+        <v>261</v>
+      </c>
+      <c r="F37" s="35" t="s">
+        <v>262</v>
+      </c>
+      <c r="G37" s="36" t="s">
+        <v>266</v>
+      </c>
+      <c r="H37" s="37"/>
+      <c r="I37" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="J37" s="37"/>
+      <c r="K37" s="37"/>
+      <c r="L37" s="37">
+        <v>1</v>
+      </c>
+      <c r="M37" s="37">
+        <v>0</v>
+      </c>
+      <c r="N37" s="33" t="s">
+        <v>265</v>
+      </c>
+      <c r="O37" s="37"/>
+      <c r="P37" s="38" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q37" s="37"/>
+    </row>
+    <row r="38" spans="1:17" ht="76" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="35">
+        <v>34</v>
+      </c>
+      <c r="B38" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="C38" s="33" t="s">
+        <v>270</v>
+      </c>
+      <c r="D38" s="33" t="s">
+        <v>273</v>
+      </c>
+      <c r="E38" s="35" t="s">
+        <v>263</v>
+      </c>
+      <c r="F38" s="35" t="s">
+        <v>264</v>
+      </c>
+      <c r="G38" s="36" t="s">
+        <v>266</v>
+      </c>
+      <c r="H38" s="37"/>
+      <c r="I38" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="J38" s="37"/>
+      <c r="K38" s="37"/>
+      <c r="L38" s="35">
+        <v>1</v>
+      </c>
+      <c r="M38" s="35">
+        <v>0</v>
+      </c>
+      <c r="N38" s="33" t="s">
+        <v>265</v>
+      </c>
+      <c r="O38" s="37"/>
+      <c r="P38" s="38" t="s">
         <v>268</v>
       </c>
-      <c r="Q35" s="37"/>
+      <c r="Q38" s="37"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1 I5:I1048576 H2:H4">
       <formula1>"Bool,I8,U8,I16,U16,float,DBL,I64,U64"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N1:N1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N1 N5:N1048576 M2:M4">
       <formula1>"Big Endian,Littile Endian"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D35">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D38">
       <formula1>"hide,num,line,bar,pie"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3369,14 +3534,14 @@
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.6328125" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="10.453125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="10.5" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -3390,7 +3555,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>47</v>
       </c>
@@ -3404,7 +3569,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>47</v>
       </c>
@@ -3418,7 +3583,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>47</v>
       </c>
@@ -3432,7 +3597,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>48</v>
       </c>
@@ -3446,7 +3611,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>48</v>
       </c>
@@ -3460,7 +3625,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>48</v>
       </c>
@@ -3474,7 +3639,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>47</v>
       </c>
@@ -3488,7 +3653,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>47</v>
       </c>
@@ -3516,19 +3681,19 @@
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.90625" customWidth="1"/>
-    <col min="3" max="4" width="17.26953125" customWidth="1"/>
-    <col min="5" max="5" width="12.90625" customWidth="1"/>
-    <col min="6" max="6" width="11.90625" customWidth="1"/>
-    <col min="7" max="7" width="10.7265625" customWidth="1"/>
-    <col min="8" max="8" width="26.36328125" customWidth="1"/>
-    <col min="9" max="9" width="14.453125" customWidth="1"/>
-    <col min="10" max="10" width="14.1796875" style="20" customWidth="1"/>
+    <col min="1" max="1" width="3.83203125" customWidth="1"/>
+    <col min="3" max="4" width="17.33203125" customWidth="1"/>
+    <col min="5" max="5" width="12.83203125" customWidth="1"/>
+    <col min="6" max="6" width="11.83203125" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" customWidth="1"/>
+    <col min="8" max="8" width="26.33203125" customWidth="1"/>
+    <col min="9" max="9" width="14.5" customWidth="1"/>
+    <col min="10" max="10" width="14.1640625" style="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -3557,7 +3722,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -3584,7 +3749,7 @@
       </c>
       <c r="I2" s="19"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="9">
         <v>2</v>
       </c>
@@ -3611,7 +3776,7 @@
       </c>
       <c r="I3" s="19"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="9">
         <v>3</v>
       </c>
@@ -3638,7 +3803,7 @@
       </c>
       <c r="I4" s="19"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="9">
         <v>4</v>
       </c>
@@ -3665,7 +3830,7 @@
       </c>
       <c r="I5" s="19"/>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="9">
         <v>5</v>
       </c>
@@ -3692,7 +3857,7 @@
       </c>
       <c r="I6" s="19"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="9">
         <v>6</v>
       </c>
@@ -3719,7 +3884,7 @@
       </c>
       <c r="I7" s="19"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="9">
         <v>7</v>
       </c>
@@ -3746,7 +3911,7 @@
       </c>
       <c r="I8" s="19"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
         <v>9</v>
       </c>
@@ -3773,7 +3938,7 @@
       </c>
       <c r="I9" s="19"/>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="12">
         <v>10</v>
       </c>
@@ -3803,7 +3968,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="12">
         <v>11</v>
       </c>
@@ -3833,7 +3998,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="12">
         <v>12</v>
       </c>
@@ -3863,7 +4028,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="12">
         <v>13</v>
       </c>
@@ -3893,7 +4058,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="12">
         <v>14</v>
       </c>
@@ -3939,22 +4104,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.7265625" customWidth="1"/>
-    <col min="3" max="3" width="14.54296875" customWidth="1"/>
-    <col min="4" max="4" width="21.6328125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="24.6328125" customWidth="1"/>
-    <col min="6" max="6" width="14.08984375" customWidth="1"/>
-    <col min="7" max="7" width="26.54296875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="4" max="4" width="21.6640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="24.6640625" customWidth="1"/>
+    <col min="6" max="6" width="14.1640625" customWidth="1"/>
+    <col min="7" max="7" width="26.5" style="2" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
@@ -3978,7 +4143,7 @@
       </c>
       <c r="H1" s="3"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -4002,7 +4167,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="31.5" customHeight="1">
+    <row r="3" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -4028,7 +4193,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="17" customHeight="1">
+    <row r="4" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -4052,7 +4217,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="17.5" customHeight="1">
+    <row r="5" spans="1:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -4074,7 +4239,7 @@
       <c r="G5" s="30"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -4096,7 +4261,7 @@
       <c r="G6" s="30"/>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -4118,7 +4283,7 @@
       <c r="G7" s="30"/>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -4140,7 +4305,7 @@
       <c r="G8" s="30"/>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -4162,7 +4327,7 @@
       <c r="G9" s="30"/>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -4184,7 +4349,7 @@
       <c r="G10" s="30"/>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -4206,7 +4371,7 @@
       <c r="G11" s="30"/>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -4228,7 +4393,7 @@
       <c r="G12" s="30"/>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -4250,7 +4415,7 @@
       <c r="G13" s="30"/>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -4272,7 +4437,7 @@
       <c r="G14" s="30"/>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -4294,7 +4459,7 @@
       <c r="G15" s="30"/>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -4316,7 +4481,7 @@
       <c r="G16" s="30"/>
       <c r="H16" s="3"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -4338,7 +4503,7 @@
       <c r="G17" s="30"/>
       <c r="H17" s="3"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -4360,7 +4525,7 @@
       <c r="G18" s="30"/>
       <c r="H18" s="3"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -4382,7 +4547,7 @@
       <c r="G19" s="30"/>
       <c r="H19" s="3"/>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -4404,7 +4569,7 @@
       <c r="G20" s="30"/>
       <c r="H20" s="3"/>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -4426,7 +4591,7 @@
       <c r="G21" s="30"/>
       <c r="H21" s="3"/>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -4448,7 +4613,7 @@
       <c r="G22" s="30"/>
       <c r="H22" s="3"/>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -4470,7 +4635,7 @@
       <c r="G23" s="30"/>
       <c r="H23" s="3"/>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -4492,7 +4657,7 @@
       <c r="G24" s="30"/>
       <c r="H24" s="3"/>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -4514,7 +4679,7 @@
       <c r="G25" s="30"/>
       <c r="H25" s="3"/>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -4536,7 +4701,7 @@
       <c r="G26" s="30"/>
       <c r="H26" s="3"/>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -4558,7 +4723,7 @@
       <c r="G27" s="30"/>
       <c r="H27" s="3"/>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -4580,7 +4745,7 @@
       <c r="G28" s="30"/>
       <c r="H28" s="3"/>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -4602,7 +4767,7 @@
       <c r="G29" s="30"/>
       <c r="H29" s="3"/>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -4624,7 +4789,7 @@
       <c r="G30" s="30"/>
       <c r="H30" s="3"/>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -4646,7 +4811,7 @@
       <c r="G31" s="30"/>
       <c r="H31" s="3"/>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -4668,7 +4833,7 @@
       <c r="G32" s="30"/>
       <c r="H32" s="3"/>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -4690,7 +4855,7 @@
       <c r="G33" s="30"/>
       <c r="H33" s="3"/>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -4712,7 +4877,7 @@
       <c r="G34" s="30"/>
       <c r="H34" s="3"/>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -4734,7 +4899,7 @@
       <c r="G35" s="30"/>
       <c r="H35" s="3"/>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -4756,7 +4921,7 @@
       <c r="G36" s="30"/>
       <c r="H36" s="3"/>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -4778,7 +4943,7 @@
       <c r="G37" s="30"/>
       <c r="H37" s="3"/>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>37</v>
       </c>
@@ -4800,7 +4965,7 @@
       <c r="G38" s="30"/>
       <c r="H38" s="3"/>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>38</v>
       </c>
@@ -4822,7 +4987,7 @@
       <c r="G39" s="30"/>
       <c r="H39" s="3"/>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>39</v>
       </c>
@@ -4844,7 +5009,7 @@
       <c r="G40" s="30"/>
       <c r="H40" s="3"/>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>40</v>
       </c>
@@ -4866,7 +5031,7 @@
       <c r="G41" s="30"/>
       <c r="H41" s="3"/>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>41</v>
       </c>
@@ -4888,7 +5053,7 @@
       <c r="G42" s="30"/>
       <c r="H42" s="3"/>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>42</v>
       </c>
@@ -4910,7 +5075,7 @@
       <c r="G43" s="30"/>
       <c r="H43" s="3"/>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>43</v>
       </c>
@@ -4932,7 +5097,7 @@
       <c r="G44" s="30"/>
       <c r="H44" s="3"/>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>44</v>
       </c>
@@ -4954,7 +5119,7 @@
       <c r="G45" s="30"/>
       <c r="H45" s="3"/>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>45</v>
       </c>
@@ -4976,7 +5141,7 @@
       <c r="G46" s="30"/>
       <c r="H46" s="3"/>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>46</v>
       </c>
@@ -4998,7 +5163,7 @@
       <c r="G47" s="30"/>
       <c r="H47" s="3"/>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>47</v>
       </c>
@@ -5021,6 +5186,7 @@
       <c r="H48" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
